--- a/src/main/resources/templates/4_cntp.xlsx
+++ b/src/main/resources/templates/4_cntp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CNTP" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tổ trưởng 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -556,17 +559,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:27"/>
+  <dimension ref="1:69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="1" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="1" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12252,37 +12255,971 @@
       <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D29" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E29" s="50" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
